--- a/www/templates/datasets_manifest.xlsx
+++ b/www/templates/datasets_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DBC4D-452F-444F-8298-F1102784533F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A9B4CE-02DA-324F-BEE2-24CC8011E11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>

--- a/www/templates/datasets_manifest.xlsx
+++ b/www/templates/datasets_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A9B4CE-02DA-324F-BEE2-24CC8011E11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BD5D5-145F-4B45-8302-4FC2A12F7960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$429</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="468">
   <si>
     <t>datasetName</t>
   </si>
@@ -259,12 +259,6 @@
     <t>Immunohistochemistry Staining Method</t>
   </si>
   <si>
-    <t>In Situ Hybridization</t>
-  </si>
-  <si>
-    <t>In Vitro Selection</t>
-  </si>
-  <si>
     <t>in vivo Bioluminescence</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>RPPA</t>
   </si>
   <si>
-    <t>Scanning angle interference microscopy</t>
-  </si>
-  <si>
     <t>scCGIseq</t>
   </si>
   <si>
@@ -1369,9 +1360,6 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>Colorectal Adenocarcinoma</t>
-  </si>
-  <si>
     <t>Leukemia</t>
   </si>
   <si>
@@ -1379,6 +1367,81 @@
   </si>
   <si>
     <t>Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Agarose-Embedded Gradient Assay</t>
+  </si>
+  <si>
+    <t>Cell Interaction Assay</t>
+  </si>
+  <si>
+    <t>ChIP-PCR</t>
+  </si>
+  <si>
+    <t>Deep Mutational Scanning</t>
+  </si>
+  <si>
+    <t>Dynamic Light Scattering</t>
+  </si>
+  <si>
+    <t>In situ Hybridization</t>
+  </si>
+  <si>
+    <t>In vitro Selection</t>
+  </si>
+  <si>
+    <t>Isolated Vessel Assay</t>
+  </si>
+  <si>
+    <t>Macrophage Polarization Assay</t>
+  </si>
+  <si>
+    <t>Mechanical Testing</t>
+  </si>
+  <si>
+    <t>Microfabricated Sandwiching Assay</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Optical Tweezers</t>
+  </si>
+  <si>
+    <t>Proximity Ligation Assay</t>
+  </si>
+  <si>
+    <t>Scanning Angle Interference Microscopy</t>
+  </si>
+  <si>
+    <t>Second-Harmonic Imaging Microscopy</t>
+  </si>
+  <si>
+    <t>Transwell Assay</t>
+  </si>
+  <si>
+    <t>Fallopian Tubes</t>
+  </si>
+  <si>
+    <t>Colon Carcinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorectal Adenocarcinoma </t>
+  </si>
+  <si>
+    <t>Esophageal Carcinoma</t>
+  </si>
+  <si>
+    <t>Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Ovarian Serous Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Ductal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Serous Tubal Intraepithelial Carcinoma</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1844,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1829,29 +1892,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{49B26A35-9624-5940-851D-D2A951946C8E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{AAE92051-0FEB-1549-BBCB-ED68ECFD0531}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$145:$B$156</xm:f>
+            <xm:f>standard_terms!$B$2:$B$163</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{E1978B00-057B-9F43-A8BF-18353110441D}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$164:$B$175</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{C8BE928E-4EDA-7F43-A3FA-7A17BF6EF7A5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{E5310DAA-AE7C-7B46-A73C-8E698D831613}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$157:$B$283</xm:f>
+            <xm:f>standard_terms!$B$311:$B$446</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{432A9605-B035-F74B-9123-14AD720452A2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{6E5CBDE9-AC04-5E43-AFF9-B0E0DE2564CB}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$284:$B$417</xm:f>
+            <xm:f>standard_terms!$B$176:$B$310</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5E87F2A5-2C98-5943-8447-59F39827BAA1}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$144</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1880,26 +1943,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1908,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1985,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -2005,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -2025,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
-  <dimension ref="A1:C417"/>
+  <dimension ref="A1:C446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2107,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2053,7 +2116,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2061,10 +2124,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2072,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2083,21 +2146,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2105,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2116,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2127,10 +2190,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2138,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2149,10 +2212,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2160,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2171,10 +2234,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2182,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -2193,21 +2256,21 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>444</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -2215,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2226,21 +2289,21 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>445</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2248,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2259,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2270,10 +2333,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2281,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2292,10 +2355,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2303,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2314,21 +2377,21 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2336,10 +2399,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2347,10 +2410,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2358,21 +2421,21 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>447</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2380,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2391,10 +2454,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2402,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2413,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2424,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2435,10 +2498,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2446,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>424</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2457,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2468,10 +2531,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2479,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2490,21 +2553,21 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>62</v>
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2512,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2523,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>421</v>
       </c>
       <c r="C45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2534,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2545,10 +2608,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2556,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2567,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2578,10 +2641,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2589,10 +2652,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2600,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2611,10 +2674,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2622,10 +2685,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2633,10 +2696,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2644,10 +2707,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2655,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2666,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2677,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2688,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2699,10 +2762,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="C61" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2710,10 +2773,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2721,10 +2784,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2732,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2743,21 +2806,21 @@
         <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>85</v>
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>450</v>
       </c>
       <c r="C66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2765,10 +2828,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2776,10 +2839,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2787,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2798,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2809,21 +2872,21 @@
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>91</v>
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>451</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2831,21 +2894,21 @@
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>93</v>
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2853,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2864,21 +2927,21 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>96</v>
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2886,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>418</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2897,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2908,21 +2971,21 @@
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>99</v>
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>452</v>
       </c>
       <c r="C81" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2930,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2941,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>417</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2952,32 +3015,32 @@
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>102</v>
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>453</v>
       </c>
       <c r="C85" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>103</v>
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>453</v>
       </c>
       <c r="C86" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2985,10 +3048,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2996,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3007,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3018,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3029,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -3040,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>415</v>
       </c>
       <c r="C92" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -3051,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -3062,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -3073,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -3084,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -3095,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -3106,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3117,10 +3180,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -3128,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -3139,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -3150,32 +3213,32 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>120</v>
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>454</v>
       </c>
       <c r="C103" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>121</v>
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>455</v>
       </c>
       <c r="C104" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -3183,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -3194,10 +3257,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -3205,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>419</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -3216,10 +3279,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -3227,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3238,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -3249,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -3260,10 +3323,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -3271,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -3282,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -3293,10 +3356,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -3304,21 +3367,21 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>132</v>
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>456</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -3326,10 +3389,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -3337,10 +3400,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -3348,10 +3411,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -3359,21 +3422,21 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>137</v>
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -3381,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -3392,10 +3455,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -3403,10 +3466,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -3414,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -3425,10 +3488,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -3436,21 +3499,21 @@
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>144</v>
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>458</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -3458,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -3469,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -3480,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3491,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -3502,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3513,10 +3576,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3524,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3535,10 +3598,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3546,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3557,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3568,10 +3631,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3579,10 +3642,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3590,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C142" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -3601,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C143" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3612,1543 +3675,1545 @@
         <v>3</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C145" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C146" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C147" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>413</v>
+        <v>142</v>
       </c>
       <c r="C148" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>416</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C152" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>412</v>
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>459</v>
       </c>
       <c r="C153" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="C155" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>414</v>
+        <v>149</v>
       </c>
       <c r="C156" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" t="s">
-        <v>105</v>
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" t="s">
-        <v>165</v>
+      <c r="A159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" t="s">
-        <v>261</v>
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" t="s">
-        <v>206</v>
+      <c r="A161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C161" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" t="s">
-        <v>225</v>
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" t="s">
-        <v>226</v>
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" t="s">
-        <v>227</v>
-      </c>
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2"/>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" t="s">
-        <v>207</v>
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C165" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" t="s">
-        <v>255</v>
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C166" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" t="s">
-        <v>228</v>
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="C167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" t="s">
-        <v>213</v>
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C168" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" t="s">
-        <v>208</v>
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C169" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" t="s">
-        <v>166</v>
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C170" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" t="s">
-        <v>168</v>
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C171" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" t="s">
-        <v>169</v>
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C172" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" t="s">
-        <v>175</v>
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" t="s">
-        <v>174</v>
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C174" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" t="s">
-        <v>176</v>
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" t="s">
-        <v>446</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="C180" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>334</v>
       </c>
       <c r="C182" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="C183" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="C184" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>422</v>
       </c>
       <c r="C185" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C186" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="C188" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>395</v>
       </c>
       <c r="C189" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="C190" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="C191" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="C192" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="C193" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="C194" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C195" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="C196" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="C197" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="C198" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C199" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="C200" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="C201" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="C202" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="C203" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="C205" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="C206" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="C207" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="C208" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>279</v>
+        <v>406</v>
       </c>
       <c r="C209" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
       <c r="C210" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>179</v>
+        <v>397</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="C212" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>357</v>
       </c>
       <c r="C213" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="C214" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="C215" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C216" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="C217" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="C220" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="C221" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="C222" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="C223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="C225" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="C227" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="C228" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C229" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="C230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="C231" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="C232" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="C233" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="C234" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="C235" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="C236" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="C237" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="C238" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="C239" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="C241" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C242" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="C243" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="C244" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C245" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="C246" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="C248" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="C249" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="C250" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="C251" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="C252" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="C253" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>221</v>
+        <v>389</v>
       </c>
       <c r="C254" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="C255" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="C256" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="C257" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C258" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C259" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="C261" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="C262" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="C263" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="C264" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="C265" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="C267" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="C268" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>205</v>
+        <v>384</v>
       </c>
       <c r="C269" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>204</v>
+        <v>379</v>
       </c>
       <c r="C270" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="C272" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="C273" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="C274" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C275" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="C276" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="C277" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="C278" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="C279" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="C280" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="C281" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C283" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>6</v>
       </c>
+      <c r="B284" t="s">
+        <v>297</v>
+      </c>
       <c r="C284" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -5156,10 +5221,10 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="C285" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -5167,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C286" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -5178,10 +5243,10 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="C287" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -5189,10 +5254,10 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C288" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -5200,10 +5265,10 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C289" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -5211,10 +5276,10 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C290" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -5222,10 +5287,10 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C291" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -5233,10 +5298,10 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C292" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -5244,10 +5309,10 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="C293" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -5255,10 +5320,10 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C294" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -5266,10 +5331,10 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="C295" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -5277,10 +5342,10 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C296" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -5288,10 +5353,10 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C297" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -5299,10 +5364,10 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="C298" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -5310,10 +5375,10 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="C299" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -5321,10 +5386,10 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="C300" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -5332,10 +5397,10 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C301" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -5343,10 +5408,10 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="C302" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -5354,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="C303" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -5365,10 +5430,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C304" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -5376,10 +5441,10 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="C305" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -5387,10 +5452,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C306" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -5398,10 +5463,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C307" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -5409,10 +5474,10 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C308" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -5420,10 +5485,10 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C309" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -5431,1194 +5496,1511 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A311" t="s">
-        <v>6</v>
-      </c>
-      <c r="B311" t="s">
-        <v>334</v>
-      </c>
+      <c r="A311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="2"/>
       <c r="C311" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B312" t="s">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="C312" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>162</v>
       </c>
       <c r="C313" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B314" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="C314" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B315" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="C315" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B316" t="s">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="C316" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B317" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="C317" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="C318" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="C319" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B320" t="s">
-        <v>411</v>
+        <v>252</v>
       </c>
       <c r="C320" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="C321" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B322" t="s">
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="C322" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C323" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C324" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="C325" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B326" t="s">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="C326" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B327" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="C327" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B328" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
       <c r="C328" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B329" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="C329" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="C330" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B331" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="C331" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="C332" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="C333" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B334" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="C334" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="C335" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B336" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="C336" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>389</v>
+        <v>180</v>
       </c>
       <c r="C337" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B338" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C338" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B339" t="s">
-        <v>357</v>
+        <v>189</v>
       </c>
       <c r="C339" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B340" t="s">
-        <v>379</v>
+        <v>192</v>
       </c>
       <c r="C340" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="C341" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="C342" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="C343" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B344" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="C344" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B345" t="s">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="C345" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B346" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="C346" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B347" t="s">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="C347" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B348" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="C348" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B349" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="C349" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B350" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C350" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B351" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="C351" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B352" t="s">
-        <v>288</v>
+        <v>425</v>
       </c>
       <c r="C352" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B353" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="C353" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B354" t="s">
-        <v>345</v>
+        <v>461</v>
       </c>
       <c r="C354" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>410</v>
+        <v>194</v>
       </c>
       <c r="C355" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="C356" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B357" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="C357" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
       <c r="C358" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B359" t="s">
-        <v>365</v>
+        <v>229</v>
       </c>
       <c r="C359" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="C360" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B361" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="C361" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B362" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C362" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B363" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="C363" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B364" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="C364" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B365" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="C365" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B366" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C366" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B367" t="s">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c r="C367" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B368" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="C368" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B369" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="C369" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B370" t="s">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="C370" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B371" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C371" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B372" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="C372" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B373" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="C373" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C374" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B375" t="s">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="C375" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B376" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C376" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B377" t="s">
-        <v>382</v>
+        <v>231</v>
       </c>
       <c r="C377" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="C378" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B379" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="C379" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B380" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="C380" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B381" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="C381" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B382" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="C382" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B383" t="s">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="C383" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B384" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="C384" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B385" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="C385" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B386" t="s">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="C386" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B387" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="C387" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B388" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="C388" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B389" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C389" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B390" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="C390" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B391" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="C391" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B392" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C392" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B393" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="C393" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B394" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C394" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B395" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="C395" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B396" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C396" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B397" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="C397" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B398" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="C398" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B399" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="C399" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B400" t="s">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C400" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B401" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C401" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B402" t="s">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="C402" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B403" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="C403" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>237</v>
       </c>
       <c r="C404" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B405" t="s">
-        <v>426</v>
+        <v>238</v>
       </c>
       <c r="C405" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="C406" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B407" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="C407" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B408" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="C408" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B409" t="s">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="C409" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B410" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="C410" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B411" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="C411" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B412" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="C412" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B413" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="C413" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B414" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="C414" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B415" t="s">
-        <v>404</v>
+        <v>260</v>
       </c>
       <c r="C415" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B416" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="C416" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B417" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="C417" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>263</v>
+      </c>
+      <c r="C418" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>264</v>
+      </c>
+      <c r="C419" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" t="s">
+        <v>466</v>
+      </c>
+      <c r="C420" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" t="s">
+        <v>265</v>
+      </c>
+      <c r="C421" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>266</v>
+      </c>
+      <c r="C422" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" t="s">
+        <v>186</v>
+      </c>
+      <c r="C423" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>220</v>
+      </c>
+      <c r="C424" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" t="s">
+        <v>241</v>
+      </c>
+      <c r="C425" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" t="s">
+        <v>269</v>
+      </c>
+      <c r="C426" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" t="s">
+        <v>270</v>
+      </c>
+      <c r="C427" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" t="s">
+        <v>169</v>
+      </c>
+      <c r="C428" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" t="s">
+        <v>244</v>
+      </c>
+      <c r="C429" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" t="s">
+        <v>202</v>
+      </c>
+      <c r="C430" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431" t="s">
+        <v>201</v>
+      </c>
+      <c r="C431" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" t="s">
+        <v>467</v>
+      </c>
+      <c r="C432" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" t="s">
+        <v>467</v>
+      </c>
+      <c r="C433" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" t="s">
+        <v>274</v>
+      </c>
+      <c r="C434" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s">
+        <v>209</v>
+      </c>
+      <c r="C436" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" t="s">
+        <v>219</v>
+      </c>
+      <c r="C437" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" t="s">
+        <v>277</v>
+      </c>
+      <c r="C438" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439" t="s">
+        <v>170</v>
+      </c>
+      <c r="C439" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440" t="s">
+        <v>242</v>
+      </c>
+      <c r="C440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B441" t="s">
+        <v>243</v>
+      </c>
+      <c r="C441" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" t="s">
+        <v>187</v>
+      </c>
+      <c r="C442" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" t="s">
+        <v>188</v>
+      </c>
+      <c r="C443" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" t="s">
+        <v>191</v>
+      </c>
+      <c r="C444" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" t="s">
+        <v>212</v>
+      </c>
+      <c r="C445" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>213</v>
+      </c>
+      <c r="C446" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C417" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B283">
-    <sortCondition ref="B283"/>
+  <autoFilter ref="A1:C429" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B295">
+    <sortCondition ref="B295"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/templates/datasets_manifest.xlsx
+++ b/www/templates/datasets_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BD5D5-145F-4B45-8302-4FC2A12F7960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433BDF3-F6FE-B143-9A0E-080F75BE809B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="20660" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="20660" windowHeight="17500" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$493</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="524">
   <si>
     <t>datasetName</t>
   </si>
@@ -1442,6 +1442,174 @@
   </si>
   <si>
     <t>Serous Tubal Intraepithelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Alkaline Comet Assay</t>
+  </si>
+  <si>
+    <t>Archer FusionPlex Assay</t>
+  </si>
+  <si>
+    <t>Atomic Absorption Spectroscopy</t>
+  </si>
+  <si>
+    <t>ATP Bioluminescence Assay</t>
+  </si>
+  <si>
+    <t>CAP-C</t>
+  </si>
+  <si>
+    <t>Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Cellular Thermal Shift Assay</t>
+  </si>
+  <si>
+    <t>Chemotaxis Assay</t>
+  </si>
+  <si>
+    <t>Chromatin Immunoprecipitation</t>
+  </si>
+  <si>
+    <t>Competitive ELISA</t>
+  </si>
+  <si>
+    <t>Conventional Microscopy</t>
+  </si>
+  <si>
+    <t>Differential Interference Contrast Microscopy</t>
+  </si>
+  <si>
+    <t>Differential Scanning Fluorimetry</t>
+  </si>
+  <si>
+    <t>Droplet Digital PCR</t>
+  </si>
+  <si>
+    <t>Dye Endocytosis Assay</t>
+  </si>
+  <si>
+    <t>FAIRE-Seq</t>
+  </si>
+  <si>
+    <t>Focused Ion Beam Scanning Electron Microscopy</t>
+  </si>
+  <si>
+    <t>Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>HiChIP</t>
+  </si>
+  <si>
+    <t>Hierarchical Loading Microwell Chip</t>
+  </si>
+  <si>
+    <t>Luminescent Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Magnetic Twisting Cytometry</t>
+  </si>
+  <si>
+    <t>Neutral Comet Assay</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing</t>
+  </si>
+  <si>
+    <t>Optical Emission Spectroscopy</t>
+  </si>
+  <si>
+    <t>Single Cell Cytokine Detection Chip Assay</t>
+  </si>
+  <si>
+    <t>Single Molecule Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Single Nucleus RNA-Sequencing</t>
+  </si>
+  <si>
+    <t>Southern Blotting</t>
+  </si>
+  <si>
+    <t>Synthetic Genetic Array</t>
+  </si>
+  <si>
+    <t>T-cell Receptor Sequencing</t>
+  </si>
+  <si>
+    <t>Transposon Insertion Sequencing</t>
+  </si>
+  <si>
+    <t>UV Photocrosslinking</t>
+  </si>
+  <si>
+    <t>Vibrational Spectroscopy</t>
+  </si>
+  <si>
+    <t>Palatine Tonsil</t>
+  </si>
+  <si>
+    <t>Pituitary Gland</t>
+  </si>
+  <si>
+    <t>Angiosarcoma</t>
+  </si>
+  <si>
+    <t>Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Cancer Stem Cells</t>
+  </si>
+  <si>
+    <t>Cervical Carcinoma</t>
+  </si>
+  <si>
+    <t>Colorectal Carcinoma</t>
+  </si>
+  <si>
+    <t>Ewing Sarcoma</t>
+  </si>
+  <si>
+    <t>Fibroepithelial Polyp</t>
+  </si>
+  <si>
+    <t>Gallbladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Malignant Digestive System Neoplasm</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>Non-Functioning Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Carcinoma</t>
+  </si>
+  <si>
+    <t>Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Prostate Carcinoma</t>
+  </si>
+  <si>
+    <t>Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
@@ -1473,12 +1641,18 @@
       <name val="SF Mono"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1493,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1507,6 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1858,16 +2033,16 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1889,36 +2064,6 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{AAE92051-0FEB-1549-BBCB-ED68ECFD0531}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{E1978B00-057B-9F43-A8BF-18353110441D}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$164:$B$175</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{E5310DAA-AE7C-7B46-A73C-8E698D831613}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$311:$B$446</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{6E5CBDE9-AC04-5E43-AFF9-B0E0DE2564CB}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$176:$B$310</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1926,7 +2071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B9EB-732F-B548-908D-2FCF6390E552}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2002,7 +2149,9 @@
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -2011,7 +2160,9 @@
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2020,7 +2171,9 @@
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2029,7 +2182,9 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -2088,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
-  <dimension ref="A1:C446"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2120,7 +2275,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2131,7 +2286,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2142,7 +2297,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2164,99 +2319,99 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>439</v>
@@ -2266,30 +2421,30 @@
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>444</v>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>439</v>
@@ -2300,84 +2455,84 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>444</v>
       </c>
       <c r="C21" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>473</v>
       </c>
       <c r="C23" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>474</v>
       </c>
       <c r="C24" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>42</v>
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>475</v>
       </c>
       <c r="C25" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>439</v>
@@ -2388,40 +2543,40 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>476</v>
       </c>
       <c r="C29" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>439</v>
@@ -2432,128 +2587,128 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C31" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>478</v>
       </c>
       <c r="C35" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>446</v>
       </c>
       <c r="C38" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>479</v>
       </c>
       <c r="C40" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>55</v>
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>480</v>
       </c>
       <c r="C41" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>439</v>
@@ -2563,250 +2718,250 @@
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>447</v>
+      </c>
+      <c r="C46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>483</v>
+      </c>
+      <c r="C51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>484</v>
+      </c>
+      <c r="C59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>486</v>
+      </c>
+      <c r="C61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C62" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C61" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C62" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C65" t="s">
         <v>439</v>
@@ -2817,62 +2972,62 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="C66" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>76</v>
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>488</v>
       </c>
       <c r="C67" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
         <v>439</v>
@@ -2882,19 +3037,19 @@
       <c r="A72" t="s">
         <v>3</v>
       </c>
-      <c r="B72" t="s">
-        <v>451</v>
+      <c r="B72" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
         <v>439</v>
@@ -2904,30 +3059,30 @@
       <c r="A74" t="s">
         <v>3</v>
       </c>
-      <c r="B74" t="s">
-        <v>81</v>
+      <c r="B74" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>439</v>
@@ -2937,41 +3092,41 @@
       <c r="A77" t="s">
         <v>3</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
+      <c r="B77" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C77" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
         <v>439</v>
@@ -2981,41 +3136,41 @@
       <c r="A81" t="s">
         <v>3</v>
       </c>
-      <c r="B81" t="s">
-        <v>452</v>
+      <c r="B81" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C81" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>449</v>
       </c>
       <c r="C82" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>439</v>
@@ -3025,8 +3180,8 @@
       <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B85" t="s">
-        <v>453</v>
+      <c r="B85" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C85" t="s">
         <v>439</v>
@@ -3037,183 +3192,183 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C86" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>415</v>
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>489</v>
       </c>
       <c r="C92" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>95</v>
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>451</v>
       </c>
       <c r="C93" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>98</v>
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>490</v>
       </c>
       <c r="C96" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>102</v>
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>452</v>
       </c>
       <c r="C101" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
         <v>439</v>
@@ -3223,8 +3378,8 @@
       <c r="A103" t="s">
         <v>3</v>
       </c>
-      <c r="B103" t="s">
-        <v>454</v>
+      <c r="B103" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C103" t="s">
         <v>439</v>
@@ -3234,140 +3389,140 @@
       <c r="A104" t="s">
         <v>3</v>
       </c>
-      <c r="B104" t="s">
-        <v>455</v>
+      <c r="B104" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C104" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>105</v>
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>453</v>
       </c>
       <c r="C105" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>415</v>
       </c>
       <c r="C111" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C112" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C113" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C115" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>414</v>
       </c>
       <c r="C116" t="s">
         <v>439</v>
@@ -3377,52 +3532,52 @@
       <c r="A117" t="s">
         <v>3</v>
       </c>
-      <c r="B117" t="s">
-        <v>456</v>
+      <c r="B117" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C117" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>118</v>
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>491</v>
       </c>
       <c r="C119" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>119</v>
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>492</v>
       </c>
       <c r="C120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
         <v>439</v>
@@ -3432,74 +3587,74 @@
       <c r="A122" t="s">
         <v>3</v>
       </c>
-      <c r="B122" t="s">
-        <v>120</v>
+      <c r="B122" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C122" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>416</v>
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>454</v>
       </c>
       <c r="C124" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>122</v>
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>493</v>
       </c>
       <c r="C125" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>420</v>
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>455</v>
       </c>
       <c r="C126" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="C127" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
         <v>439</v>
@@ -3509,261 +3664,261 @@
       <c r="A129" t="s">
         <v>3</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>456</v>
+      </c>
+      <c r="C139" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C144" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C147" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
         <v>458</v>
       </c>
-      <c r="C129" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="C150" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C130" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="2" t="s">
+      <c r="C151" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C131" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C132" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C134" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C135" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C138" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C139" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C140" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C141" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C142" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C145" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C146" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C148" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C149" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C151" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C152" t="s">
         <v>439</v>
@@ -3773,248 +3928,250 @@
       <c r="A153" t="s">
         <v>3</v>
       </c>
-      <c r="B153" t="s">
-        <v>459</v>
+      <c r="B153" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C153" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>147</v>
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>494</v>
       </c>
       <c r="C154" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>150</v>
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>495</v>
       </c>
       <c r="C157" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C158" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>152</v>
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>496</v>
       </c>
       <c r="C159" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C162" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="2"/>
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C164" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>410</v>
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>497</v>
       </c>
       <c r="C165" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" s="2" t="s">
-        <v>4</v>
+      <c r="A166" t="s">
+        <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C166" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" s="2" t="s">
-        <v>4</v>
+      <c r="A167" t="s">
+        <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" s="2" t="s">
-        <v>4</v>
+      <c r="A168" t="s">
+        <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C168" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
-        <v>4</v>
+      <c r="A169" t="s">
+        <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>409</v>
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>498</v>
       </c>
       <c r="C170" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>160</v>
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>499</v>
       </c>
       <c r="C171" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>4</v>
+      <c r="A172" t="s">
+        <v>3</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C172" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" s="2" t="s">
-        <v>4</v>
+      <c r="A173" t="s">
+        <v>3</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C173" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="2" t="s">
-        <v>4</v>
+      <c r="A174" t="s">
+        <v>3</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>412</v>
+        <v>141</v>
       </c>
       <c r="C174" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
-        <v>4</v>
+      <c r="A175" t="s">
+        <v>3</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="C175" t="s">
         <v>439</v>
@@ -4022,7 +4179,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C176" t="s">
         <v>439</v>
@@ -4030,10 +4190,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" t="s">
-        <v>360</v>
+        <v>3</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C177" t="s">
         <v>439</v>
@@ -4041,10 +4201,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" t="s">
-        <v>303</v>
+        <v>3</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C178" t="s">
         <v>439</v>
@@ -4052,10 +4212,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>382</v>
+        <v>3</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C179" t="s">
         <v>439</v>
@@ -4063,10 +4223,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s">
         <v>439</v>
@@ -4074,10 +4234,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="C181" t="s">
         <v>439</v>
@@ -4085,10 +4245,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" t="s">
-        <v>334</v>
+        <v>3</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C182" t="s">
         <v>439</v>
@@ -4096,10 +4256,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" t="s">
-        <v>329</v>
+        <v>3</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C183" t="s">
         <v>439</v>
@@ -4107,10 +4267,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>501</v>
       </c>
       <c r="C184" t="s">
         <v>439</v>
@@ -4118,10 +4278,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" t="s">
-        <v>422</v>
+        <v>3</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C185" t="s">
         <v>439</v>
@@ -4129,10 +4289,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="C186" t="s">
         <v>439</v>
@@ -4140,10 +4300,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>351</v>
+        <v>3</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C187" t="s">
         <v>439</v>
@@ -4151,10 +4311,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>368</v>
+        <v>3</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C188" t="s">
         <v>439</v>
@@ -4162,10 +4322,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>395</v>
+        <v>3</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C189" t="s">
         <v>439</v>
@@ -4173,10 +4333,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>318</v>
+        <v>3</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C190" t="s">
         <v>439</v>
@@ -4184,10 +4344,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C191" t="s">
         <v>439</v>
@@ -4195,10 +4355,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" t="s">
-        <v>314</v>
+        <v>3</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C192" t="s">
         <v>439</v>
@@ -4206,153 +4366,151 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>322</v>
+        <v>3</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C193" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" t="s">
-        <v>366</v>
-      </c>
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2"/>
       <c r="C194" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" t="s">
-        <v>300</v>
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C195" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" t="s">
-        <v>332</v>
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C196" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" t="s">
-        <v>324</v>
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="C197" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>313</v>
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="C198" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>308</v>
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C199" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>358</v>
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C200" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>396</v>
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C201" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>383</v>
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C202" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>331</v>
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C203" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>394</v>
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C204" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>304</v>
+      <c r="A205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C205" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>404</v>
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C206" t="s">
         <v>439</v>
@@ -4362,9 +4520,6 @@
       <c r="A207" t="s">
         <v>6</v>
       </c>
-      <c r="B207" t="s">
-        <v>338</v>
-      </c>
       <c r="C207" t="s">
         <v>439</v>
       </c>
@@ -4374,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C208" t="s">
         <v>439</v>
@@ -4385,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>406</v>
+        <v>303</v>
       </c>
       <c r="C209" t="s">
         <v>439</v>
@@ -4396,7 +4551,7 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C210" t="s">
         <v>439</v>
@@ -4407,7 +4562,7 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C211" t="s">
         <v>439</v>
@@ -4418,7 +4573,7 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
         <v>439</v>
@@ -4429,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C213" t="s">
         <v>439</v>
@@ -4440,7 +4595,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="C214" t="s">
         <v>439</v>
@@ -4451,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="C215" t="s">
         <v>439</v>
@@ -4462,7 +4617,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="C216" t="s">
         <v>439</v>
@@ -4473,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C217" t="s">
         <v>439</v>
@@ -4484,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="C218" t="s">
         <v>439</v>
@@ -4495,7 +4650,7 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="C219" t="s">
         <v>439</v>
@@ -4506,7 +4661,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C220" t="s">
         <v>439</v>
@@ -4517,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="C221" t="s">
         <v>439</v>
@@ -4528,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
         <v>439</v>
@@ -4539,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="C223" t="s">
         <v>439</v>
@@ -4550,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="C224" t="s">
         <v>439</v>
@@ -4561,7 +4716,7 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C225" t="s">
         <v>439</v>
@@ -4572,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C226" t="s">
         <v>439</v>
@@ -4583,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C227" t="s">
         <v>439</v>
@@ -4594,7 +4749,7 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="C228" t="s">
         <v>439</v>
@@ -4605,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C229" t="s">
         <v>439</v>
@@ -4616,7 +4771,7 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="C230" t="s">
         <v>439</v>
@@ -4627,7 +4782,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="C231" t="s">
         <v>439</v>
@@ -4638,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C232" t="s">
         <v>439</v>
@@ -4649,7 +4804,7 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C233" t="s">
         <v>439</v>
@@ -4660,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="C234" t="s">
         <v>439</v>
@@ -4671,7 +4826,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C235" t="s">
         <v>439</v>
@@ -4682,7 +4837,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="C236" t="s">
         <v>439</v>
@@ -4693,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="C237" t="s">
         <v>439</v>
@@ -4704,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C238" t="s">
         <v>439</v>
@@ -4715,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C239" t="s">
         <v>439</v>
@@ -4726,7 +4881,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="C240" t="s">
         <v>439</v>
@@ -4737,7 +4892,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="C241" t="s">
         <v>439</v>
@@ -4748,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="C242" t="s">
         <v>439</v>
@@ -4759,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>284</v>
+        <v>408</v>
       </c>
       <c r="C243" t="s">
         <v>439</v>
@@ -4770,7 +4925,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="C244" t="s">
         <v>439</v>
@@ -4781,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="C245" t="s">
         <v>439</v>
@@ -4792,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C246" t="s">
         <v>439</v>
@@ -4803,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="C247" t="s">
         <v>439</v>
@@ -4814,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>407</v>
+        <v>291</v>
       </c>
       <c r="C248" t="s">
         <v>439</v>
@@ -4825,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="C249" t="s">
         <v>439</v>
@@ -4836,7 +4991,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="C250" t="s">
         <v>439</v>
@@ -4847,7 +5002,7 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="C251" t="s">
         <v>439</v>
@@ -4858,7 +5013,7 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C252" t="s">
         <v>439</v>
@@ -4869,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C253" t="s">
         <v>439</v>
@@ -4880,7 +5035,7 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C254" t="s">
         <v>439</v>
@@ -4891,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C255" t="s">
         <v>439</v>
@@ -4902,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C256" t="s">
         <v>439</v>
@@ -4913,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C257" t="s">
         <v>439</v>
@@ -4924,7 +5079,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C258" t="s">
         <v>439</v>
@@ -4935,7 +5090,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="C259" t="s">
         <v>439</v>
@@ -4946,7 +5101,7 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="C260" t="s">
         <v>439</v>
@@ -4957,7 +5112,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="C261" t="s">
         <v>439</v>
@@ -4968,7 +5123,7 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
         <v>439</v>
@@ -4979,7 +5134,7 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="C263" t="s">
         <v>439</v>
@@ -4990,7 +5145,7 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C264" t="s">
         <v>439</v>
@@ -5001,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="C265" t="s">
         <v>439</v>
@@ -5012,7 +5167,7 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C266" t="s">
         <v>439</v>
@@ -5023,7 +5178,7 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="C267" t="s">
         <v>439</v>
@@ -5034,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C268" t="s">
         <v>439</v>
@@ -5045,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C269" t="s">
         <v>439</v>
@@ -5056,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="C270" t="s">
         <v>439</v>
@@ -5067,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="C271" t="s">
         <v>439</v>
@@ -5078,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C272" t="s">
         <v>439</v>
@@ -5089,7 +5244,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C273" t="s">
         <v>439</v>
@@ -5100,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C274" t="s">
         <v>439</v>
@@ -5111,7 +5266,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C275" t="s">
         <v>439</v>
@@ -5122,7 +5277,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C276" t="s">
         <v>439</v>
@@ -5133,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="C277" t="s">
         <v>439</v>
@@ -5144,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C278" t="s">
         <v>439</v>
@@ -5155,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C279" t="s">
         <v>439</v>
@@ -5166,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="C280" t="s">
         <v>439</v>
@@ -5177,7 +5332,7 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="C281" t="s">
         <v>439</v>
@@ -5188,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="C282" t="s">
         <v>439</v>
@@ -5199,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="C283" t="s">
         <v>439</v>
@@ -5210,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
         <v>439</v>
@@ -5221,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
         <v>439</v>
@@ -5232,7 +5387,7 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s">
         <v>439</v>
@@ -5243,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C287" t="s">
         <v>439</v>
@@ -5254,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="C288" t="s">
         <v>439</v>
@@ -5265,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
         <v>439</v>
@@ -5276,7 +5431,7 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C290" t="s">
         <v>439</v>
@@ -5287,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C291" t="s">
         <v>439</v>
@@ -5298,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C292" t="s">
         <v>439</v>
@@ -5309,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="C293" t="s">
         <v>439</v>
@@ -5320,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C294" t="s">
         <v>439</v>
@@ -5331,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C295" t="s">
         <v>439</v>
@@ -5342,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C296" t="s">
         <v>439</v>
@@ -5353,7 +5508,7 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C297" t="s">
         <v>439</v>
@@ -5364,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="C298" t="s">
         <v>439</v>
@@ -5375,7 +5530,7 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C299" t="s">
         <v>439</v>
@@ -5386,7 +5541,7 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="C300" t="s">
         <v>439</v>
@@ -5397,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="C301" t="s">
         <v>439</v>
@@ -5408,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C302" t="s">
         <v>439</v>
@@ -5419,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>147</v>
+        <v>503</v>
       </c>
       <c r="C303" t="s">
         <v>439</v>
@@ -5430,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C304" t="s">
         <v>439</v>
@@ -5441,7 +5596,7 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C305" t="s">
         <v>439</v>
@@ -5452,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
         <v>439</v>
@@ -5463,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="C307" t="s">
         <v>439</v>
@@ -5474,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="C308" t="s">
         <v>439</v>
@@ -5485,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="C309" t="s">
         <v>439</v>
@@ -5496,27 +5651,29 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="C310" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A311" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B311" s="2"/>
+      <c r="A311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>370</v>
+      </c>
       <c r="C311" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="C312" t="s">
         <v>439</v>
@@ -5524,10 +5681,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="C313" t="s">
         <v>439</v>
@@ -5535,10 +5692,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="C314" t="s">
         <v>439</v>
@@ -5546,10 +5703,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="C315" t="s">
         <v>439</v>
@@ -5557,10 +5714,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="C316" t="s">
         <v>439</v>
@@ -5568,10 +5725,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="C317" t="s">
         <v>439</v>
@@ -5579,10 +5736,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C318" t="s">
         <v>439</v>
@@ -5590,10 +5747,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="C319" t="s">
         <v>439</v>
@@ -5601,10 +5758,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C320" t="s">
         <v>439</v>
@@ -5612,10 +5769,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="C321" t="s">
         <v>439</v>
@@ -5623,10 +5780,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="C322" t="s">
         <v>439</v>
@@ -5634,10 +5791,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="C323" t="s">
         <v>439</v>
@@ -5645,10 +5802,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="C324" t="s">
         <v>439</v>
@@ -5656,10 +5813,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="C325" t="s">
         <v>439</v>
@@ -5667,10 +5824,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="C326" t="s">
         <v>439</v>
@@ -5678,10 +5835,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="C327" t="s">
         <v>439</v>
@@ -5689,10 +5846,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="C328" t="s">
         <v>439</v>
@@ -5700,10 +5857,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
         <v>439</v>
@@ -5711,10 +5868,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="C330" t="s">
         <v>439</v>
@@ -5722,10 +5879,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C331" t="s">
         <v>439</v>
@@ -5733,10 +5890,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="C332" t="s">
         <v>439</v>
@@ -5744,10 +5901,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="C333" t="s">
         <v>439</v>
@@ -5755,10 +5912,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="C334" t="s">
         <v>439</v>
@@ -5766,10 +5923,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>207</v>
+        <v>403</v>
       </c>
       <c r="C335" t="s">
         <v>439</v>
@@ -5777,10 +5934,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C336" t="s">
         <v>439</v>
@@ -5788,10 +5945,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>180</v>
+        <v>343</v>
       </c>
       <c r="C337" t="s">
         <v>439</v>
@@ -5799,10 +5956,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="C338" t="s">
         <v>439</v>
@@ -5810,10 +5967,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="C339" t="s">
         <v>439</v>
@@ -5821,10 +5978,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="C340" t="s">
         <v>439</v>
@@ -5832,10 +5989,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="C341" t="s">
         <v>439</v>
@@ -5843,10 +6000,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="C342" t="s">
         <v>439</v>
@@ -5854,22 +6011,20 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="C343" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A344" t="s">
-        <v>5</v>
-      </c>
-      <c r="B344" t="s">
-        <v>253</v>
-      </c>
+      <c r="A344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="2"/>
       <c r="C344" t="s">
         <v>439</v>
       </c>
@@ -5879,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="B345" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="C345" t="s">
         <v>439</v>
@@ -5890,7 +6045,7 @@
         <v>5</v>
       </c>
       <c r="B346" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C346" t="s">
         <v>439</v>
@@ -5901,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="B347" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="C347" t="s">
         <v>439</v>
@@ -5912,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="B348" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C348" t="s">
         <v>439</v>
@@ -5923,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="B349" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C349" t="s">
         <v>439</v>
@@ -5934,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="B350" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C350" t="s">
         <v>439</v>
@@ -5945,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="B351" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C351" t="s">
         <v>439</v>
@@ -5956,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="B352" t="s">
-        <v>425</v>
+        <v>204</v>
       </c>
       <c r="C352" t="s">
         <v>439</v>
@@ -5967,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="B353" t="s">
-        <v>193</v>
+        <v>505</v>
       </c>
       <c r="C353" t="s">
         <v>439</v>
@@ -5978,7 +6133,7 @@
         <v>5</v>
       </c>
       <c r="B354" t="s">
-        <v>461</v>
+        <v>252</v>
       </c>
       <c r="C354" t="s">
         <v>439</v>
@@ -5989,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C355" t="s">
         <v>439</v>
@@ -6000,7 +6155,7 @@
         <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C356" t="s">
         <v>439</v>
@@ -6011,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="B357" t="s">
-        <v>462</v>
+        <v>205</v>
       </c>
       <c r="C357" t="s">
         <v>439</v>
@@ -6022,7 +6177,7 @@
         <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C358" t="s">
         <v>439</v>
@@ -6033,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="B359" t="s">
-        <v>229</v>
+        <v>506</v>
       </c>
       <c r="C359" t="s">
         <v>439</v>
@@ -6044,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="C360" t="s">
         <v>439</v>
@@ -6055,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B361" t="s">
-        <v>427</v>
+        <v>166</v>
       </c>
       <c r="C361" t="s">
         <v>439</v>
@@ -6066,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="B362" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -6077,7 +6232,7 @@
         <v>5</v>
       </c>
       <c r="B363" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="C363" t="s">
         <v>439</v>
@@ -6088,7 +6243,7 @@
         <v>5</v>
       </c>
       <c r="B364" t="s">
-        <v>463</v>
+        <v>173</v>
       </c>
       <c r="C364" t="s">
         <v>439</v>
@@ -6099,7 +6254,7 @@
         <v>5</v>
       </c>
       <c r="B365" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C365" t="s">
         <v>439</v>
@@ -6110,7 +6265,7 @@
         <v>5</v>
       </c>
       <c r="B366" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="C366" t="s">
         <v>439</v>
@@ -6121,7 +6276,7 @@
         <v>5</v>
       </c>
       <c r="B367" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="C367" t="s">
         <v>439</v>
@@ -6132,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
-        <v>176</v>
+        <v>507</v>
       </c>
       <c r="C368" t="s">
         <v>439</v>
@@ -6143,7 +6298,7 @@
         <v>5</v>
       </c>
       <c r="B369" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C369" t="s">
         <v>439</v>
@@ -6154,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C370" t="s">
         <v>439</v>
@@ -6165,7 +6320,7 @@
         <v>5</v>
       </c>
       <c r="B371" t="s">
-        <v>441</v>
+        <v>167</v>
       </c>
       <c r="C371" t="s">
         <v>439</v>
@@ -6176,7 +6331,7 @@
         <v>5</v>
       </c>
       <c r="B372" t="s">
-        <v>441</v>
+        <v>180</v>
       </c>
       <c r="C372" t="s">
         <v>439</v>
@@ -6187,7 +6342,7 @@
         <v>5</v>
       </c>
       <c r="B373" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C373" t="s">
         <v>439</v>
@@ -6198,7 +6353,7 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="C374" t="s">
         <v>439</v>
@@ -6209,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="B375" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C375" t="s">
         <v>439</v>
@@ -6220,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="B376" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C376" t="s">
         <v>439</v>
@@ -6231,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="B377" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C377" t="s">
         <v>439</v>
@@ -6242,7 +6397,7 @@
         <v>5</v>
       </c>
       <c r="B378" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C378" t="s">
         <v>439</v>
@@ -6253,7 +6408,7 @@
         <v>5</v>
       </c>
       <c r="B379" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="C379" t="s">
         <v>439</v>
@@ -6264,7 +6419,7 @@
         <v>5</v>
       </c>
       <c r="B380" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C380" t="s">
         <v>439</v>
@@ -6275,7 +6430,7 @@
         <v>5</v>
       </c>
       <c r="B381" t="s">
-        <v>246</v>
+        <v>508</v>
       </c>
       <c r="C381" t="s">
         <v>439</v>
@@ -6286,7 +6441,7 @@
         <v>5</v>
       </c>
       <c r="B382" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C382" t="s">
         <v>439</v>
@@ -6297,7 +6452,7 @@
         <v>5</v>
       </c>
       <c r="B383" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C383" t="s">
         <v>439</v>
@@ -6308,7 +6463,7 @@
         <v>5</v>
       </c>
       <c r="B384" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C384" t="s">
         <v>439</v>
@@ -6319,7 +6474,7 @@
         <v>5</v>
       </c>
       <c r="B385" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="C385" t="s">
         <v>439</v>
@@ -6330,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="B386" t="s">
-        <v>464</v>
+        <v>227</v>
       </c>
       <c r="C386" t="s">
         <v>439</v>
@@ -6341,7 +6496,7 @@
         <v>5</v>
       </c>
       <c r="B387" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C387" t="s">
         <v>439</v>
@@ -6352,7 +6507,7 @@
         <v>5</v>
       </c>
       <c r="B388" t="s">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="C388" t="s">
         <v>439</v>
@@ -6363,7 +6518,7 @@
         <v>5</v>
       </c>
       <c r="B389" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C389" t="s">
         <v>439</v>
@@ -6374,7 +6529,7 @@
         <v>5</v>
       </c>
       <c r="B390" t="s">
-        <v>232</v>
+        <v>461</v>
       </c>
       <c r="C390" t="s">
         <v>439</v>
@@ -6385,7 +6540,7 @@
         <v>5</v>
       </c>
       <c r="B391" t="s">
-        <v>426</v>
+        <v>194</v>
       </c>
       <c r="C391" t="s">
         <v>439</v>
@@ -6396,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="B392" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C392" t="s">
         <v>439</v>
@@ -6407,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="B393" t="s">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="C393" t="s">
         <v>439</v>
@@ -6418,7 +6573,7 @@
         <v>5</v>
       </c>
       <c r="B394" t="s">
-        <v>259</v>
+        <v>509</v>
       </c>
       <c r="C394" t="s">
         <v>439</v>
@@ -6429,7 +6584,7 @@
         <v>5</v>
       </c>
       <c r="B395" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="C395" t="s">
         <v>439</v>
@@ -6440,7 +6595,7 @@
         <v>5</v>
       </c>
       <c r="B396" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C396" t="s">
         <v>439</v>
@@ -6451,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="B397" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C397" t="s">
         <v>439</v>
@@ -6462,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="B398" t="s">
-        <v>234</v>
+        <v>427</v>
       </c>
       <c r="C398" t="s">
         <v>439</v>
@@ -6473,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="B399" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="C399" t="s">
         <v>439</v>
@@ -6484,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="B400" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="C400" t="s">
         <v>439</v>
@@ -6495,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="B401" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="C401" t="s">
         <v>439</v>
@@ -6506,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="B402" t="s">
-        <v>236</v>
+        <v>510</v>
       </c>
       <c r="C402" t="s">
         <v>439</v>
@@ -6517,7 +6672,7 @@
         <v>5</v>
       </c>
       <c r="B403" t="s">
-        <v>216</v>
+        <v>511</v>
       </c>
       <c r="C403" t="s">
         <v>439</v>
@@ -6528,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="B404" t="s">
-        <v>237</v>
+        <v>424</v>
       </c>
       <c r="C404" t="s">
         <v>439</v>
@@ -6539,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="B405" t="s">
-        <v>238</v>
+        <v>512</v>
       </c>
       <c r="C405" t="s">
         <v>439</v>
@@ -6550,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="B406" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C406" t="s">
         <v>439</v>
@@ -6561,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="B407" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C407" t="s">
         <v>439</v>
@@ -6572,7 +6727,7 @@
         <v>5</v>
       </c>
       <c r="B408" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="C408" t="s">
         <v>439</v>
@@ -6583,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="B409" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C409" t="s">
         <v>439</v>
@@ -6594,7 +6749,7 @@
         <v>5</v>
       </c>
       <c r="B410" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="C410" t="s">
         <v>439</v>
@@ -6605,7 +6760,7 @@
         <v>5</v>
       </c>
       <c r="B411" t="s">
-        <v>240</v>
+        <v>441</v>
       </c>
       <c r="C411" t="s">
         <v>439</v>
@@ -6616,7 +6771,7 @@
         <v>5</v>
       </c>
       <c r="B412" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C412" t="s">
         <v>439</v>
@@ -6627,7 +6782,7 @@
         <v>5</v>
       </c>
       <c r="B413" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C413" t="s">
         <v>439</v>
@@ -6638,7 +6793,7 @@
         <v>5</v>
       </c>
       <c r="B414" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C414" t="s">
         <v>439</v>
@@ -6649,7 +6804,7 @@
         <v>5</v>
       </c>
       <c r="B415" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="C415" t="s">
         <v>439</v>
@@ -6660,7 +6815,7 @@
         <v>5</v>
       </c>
       <c r="B416" t="s">
-        <v>465</v>
+        <v>231</v>
       </c>
       <c r="C416" t="s">
         <v>439</v>
@@ -6671,7 +6826,7 @@
         <v>5</v>
       </c>
       <c r="B417" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="C417" t="s">
         <v>439</v>
@@ -6682,7 +6837,7 @@
         <v>5</v>
       </c>
       <c r="B418" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="C418" t="s">
         <v>439</v>
@@ -6693,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="B419" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C419" t="s">
         <v>439</v>
@@ -6704,7 +6859,7 @@
         <v>5</v>
       </c>
       <c r="B420" t="s">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="C420" t="s">
         <v>439</v>
@@ -6715,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="B421" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="C421" t="s">
         <v>439</v>
@@ -6726,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="B422" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C422" t="s">
         <v>439</v>
@@ -6737,7 +6892,7 @@
         <v>5</v>
       </c>
       <c r="B423" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C423" t="s">
         <v>439</v>
@@ -6748,7 +6903,7 @@
         <v>5</v>
       </c>
       <c r="B424" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C424" t="s">
         <v>439</v>
@@ -6759,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="B425" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="C425" t="s">
         <v>439</v>
@@ -6770,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="B426" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C426" t="s">
         <v>439</v>
@@ -6781,7 +6936,7 @@
         <v>5</v>
       </c>
       <c r="B427" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C427" t="s">
         <v>439</v>
@@ -6792,7 +6947,7 @@
         <v>5</v>
       </c>
       <c r="B428" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="C428" t="s">
         <v>439</v>
@@ -6803,7 +6958,7 @@
         <v>5</v>
       </c>
       <c r="B429" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C429" t="s">
         <v>439</v>
@@ -6814,7 +6969,7 @@
         <v>5</v>
       </c>
       <c r="B430" t="s">
-        <v>202</v>
+        <v>426</v>
       </c>
       <c r="C430" t="s">
         <v>439</v>
@@ -6825,7 +6980,7 @@
         <v>5</v>
       </c>
       <c r="B431" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C431" t="s">
         <v>439</v>
@@ -6836,7 +6991,7 @@
         <v>5</v>
       </c>
       <c r="B432" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="C432" t="s">
         <v>439</v>
@@ -6847,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="B433" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="C433" t="s">
         <v>439</v>
@@ -6858,7 +7013,7 @@
         <v>5</v>
       </c>
       <c r="B434" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="C434" t="s">
         <v>439</v>
@@ -6869,7 +7024,7 @@
         <v>5</v>
       </c>
       <c r="B435" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C435" t="s">
         <v>439</v>
@@ -6880,7 +7035,7 @@
         <v>5</v>
       </c>
       <c r="B436" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C436" t="s">
         <v>439</v>
@@ -6891,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="B437" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C437" t="s">
         <v>439</v>
@@ -6902,7 +7057,7 @@
         <v>5</v>
       </c>
       <c r="B438" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C438" t="s">
         <v>439</v>
@@ -6913,7 +7068,7 @@
         <v>5</v>
       </c>
       <c r="B439" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="C439" t="s">
         <v>439</v>
@@ -6924,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="B440" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C440" t="s">
         <v>439</v>
@@ -6935,7 +7090,7 @@
         <v>5</v>
       </c>
       <c r="B441" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="C441" t="s">
         <v>439</v>
@@ -6946,7 +7101,7 @@
         <v>5</v>
       </c>
       <c r="B442" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="C442" t="s">
         <v>439</v>
@@ -6957,7 +7112,7 @@
         <v>5</v>
       </c>
       <c r="B443" t="s">
-        <v>188</v>
+        <v>515</v>
       </c>
       <c r="C443" t="s">
         <v>439</v>
@@ -6968,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="B444" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C444" t="s">
         <v>439</v>
@@ -6979,7 +7134,7 @@
         <v>5</v>
       </c>
       <c r="B445" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C445" t="s">
         <v>439</v>
@@ -6990,17 +7145,535 @@
         <v>5</v>
       </c>
       <c r="B446" t="s">
+        <v>237</v>
+      </c>
+      <c r="C446" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" t="s">
+        <v>238</v>
+      </c>
+      <c r="C447" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" t="s">
+        <v>239</v>
+      </c>
+      <c r="C448" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" t="s">
+        <v>199</v>
+      </c>
+      <c r="C449" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
+        <v>257</v>
+      </c>
+      <c r="C450" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>208</v>
+      </c>
+      <c r="C451" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>267</v>
+      </c>
+      <c r="C452" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" t="s">
+        <v>516</v>
+      </c>
+      <c r="C453" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" t="s">
+        <v>240</v>
+      </c>
+      <c r="C454" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" t="s">
+        <v>217</v>
+      </c>
+      <c r="C455" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" t="s">
+        <v>218</v>
+      </c>
+      <c r="C456" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" t="s">
+        <v>200</v>
+      </c>
+      <c r="C457" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" t="s">
+        <v>260</v>
+      </c>
+      <c r="C458" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" t="s">
+        <v>465</v>
+      </c>
+      <c r="C459" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>262</v>
+      </c>
+      <c r="C460" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" t="s">
+        <v>263</v>
+      </c>
+      <c r="C461" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="s">
+        <v>264</v>
+      </c>
+      <c r="C462" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>517</v>
+      </c>
+      <c r="C463" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>466</v>
+      </c>
+      <c r="C464" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>265</v>
+      </c>
+      <c r="C465" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" t="s">
+        <v>266</v>
+      </c>
+      <c r="C466" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" t="s">
+        <v>186</v>
+      </c>
+      <c r="C467" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>518</v>
+      </c>
+      <c r="C468" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>220</v>
+      </c>
+      <c r="C469" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" t="s">
+        <v>241</v>
+      </c>
+      <c r="C470" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" t="s">
+        <v>519</v>
+      </c>
+      <c r="C471" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>269</v>
+      </c>
+      <c r="C472" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>270</v>
+      </c>
+      <c r="C473" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>169</v>
+      </c>
+      <c r="C474" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>244</v>
+      </c>
+      <c r="C475" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>202</v>
+      </c>
+      <c r="C476" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>201</v>
+      </c>
+      <c r="C477" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>467</v>
+      </c>
+      <c r="C478" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>274</v>
+      </c>
+      <c r="C479" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" t="s">
+        <v>520</v>
+      </c>
+      <c r="C480" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" t="s">
+        <v>221</v>
+      </c>
+      <c r="C481" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A482" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" t="s">
+        <v>209</v>
+      </c>
+      <c r="C482" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>219</v>
+      </c>
+      <c r="C483" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" t="s">
+        <v>277</v>
+      </c>
+      <c r="C484" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" t="s">
+        <v>170</v>
+      </c>
+      <c r="C485" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" t="s">
+        <v>242</v>
+      </c>
+      <c r="C486" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" t="s">
+        <v>243</v>
+      </c>
+      <c r="C487" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A488" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" t="s">
+        <v>187</v>
+      </c>
+      <c r="C488" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" t="s">
+        <v>188</v>
+      </c>
+      <c r="C489" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s">
+        <v>521</v>
+      </c>
+      <c r="C490" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A491" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" t="s">
+        <v>191</v>
+      </c>
+      <c r="C491" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A492" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" t="s">
+        <v>212</v>
+      </c>
+      <c r="C492" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A493" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" t="s">
         <v>213</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C493" t="s">
         <v>439</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C429" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A161:B295">
-    <sortCondition ref="B295"/>
+  <autoFilter ref="A1:C493" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C951">
+    <sortCondition ref="A2:A951"/>
+    <sortCondition ref="B2:B951"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
